--- a/POpenMP Rendimiento.xlsx
+++ b/POpenMP Rendimiento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Gits\POpenMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37C281E-3EC8-4C7C-ABCA-5D8AE16A9CB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F046A9-3BA2-487A-98D6-0AD399B3F8C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12930" yWindow="7180" windowWidth="21600" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="60">
   <si>
     <t>Seq Sin Opt. (C)</t>
   </si>
@@ -230,12 +230,51 @@
   <si>
     <t>Par.1  (S)</t>
   </si>
+  <si>
+    <t>par 4 gauss</t>
+  </si>
+  <si>
+    <t>par 4 sobel</t>
+  </si>
+  <si>
+    <t>par 8 gauss</t>
+  </si>
+  <si>
+    <t>par 8 sobel</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>dynamic</t>
+  </si>
+  <si>
+    <t>guided</t>
+  </si>
+  <si>
+    <t xml:space="preserve">par1 </t>
+  </si>
+  <si>
+    <t>par2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">par4 </t>
+  </si>
+  <si>
+    <t>par 8</t>
+  </si>
+  <si>
+    <t>par16</t>
+  </si>
+  <si>
+    <t>SPEEDUP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -280,6 +319,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -313,13 +357,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -344,14 +389,307 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{6ED21748-A900-4E14-BE4E-6EC8AEBEC1AB}"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2487,6 +2825,1523 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1000"/>
+              <a:t>Comparacion de planificacioones</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1000" baseline="0"/>
+              <a:t> en 4 y 8 hilos.</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES" sz="1000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Hoja 1'!$B$237</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>par 4 gauss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Hoja 1'!$A$238:$A$240</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>static</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dynamic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>guided</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Hoja 1'!$B$238:$B$240</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1013512.8000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1016900.4666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1010064.3999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1CC1-4931-A54D-B6F078395821}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Hoja 1'!$C$237</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>par 4 sobel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Hoja 1'!$A$238:$A$240</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>static</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dynamic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>guided</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Hoja 1'!$C$238:$C$240</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1240151.9999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1250531.4666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1254158.3333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1CC1-4931-A54D-B6F078395821}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Hoja 1'!$D$237</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>par 8 gauss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.945272358642913E-2"/>
+                  <c:y val="5.4261469836664106E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-1CC1-4931-A54D-B6F078395821}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.2833511801348436E-2"/>
+                  <c:y val="2.29641062233518E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-1CC1-4931-A54D-B6F078395821}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.2097421801304966E-2"/>
+                  <c:y val="2.6544560943920634E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-1CC1-4931-A54D-B6F078395821}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Hoja 1'!$A$238:$A$240</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>static</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dynamic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>guided</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Hoja 1'!$D$238:$D$240</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1022481.7333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>987217.06666666665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>999217.7333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1CC1-4931-A54D-B6F078395821}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Hoja 1'!$E$237</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>par 8 sobel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.5595704016472189E-2"/>
+                  <c:y val="2.2964106223351866E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-1CC1-4931-A54D-B6F078395821}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.5595704016472189E-2"/>
+                  <c:y val="2.475433358363625E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-1CC1-4931-A54D-B6F078395821}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.4859614016428826E-2"/>
+                  <c:y val="2.1173878863067482E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-1CC1-4931-A54D-B6F078395821}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Hoja 1'!$A$238:$A$240</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>static</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dynamic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>guided</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Hoja 1'!$E$238:$E$240</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1201722.0666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1234564.0666666669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1195579.9333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1CC1-4931-A54D-B6F078395821}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1618144111"/>
+        <c:axId val="1340320879"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1618144111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1340320879"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1340320879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1618144111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1000"/>
+              <a:t>Comparación de los Speedup para las distintos hilos de paralelización respecto a la versión secuencial opt</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Hoja 1'!$B$242</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GAUSS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.0412519208767905E-2"/>
+                  <c:y val="4.9500029189633664E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-FEAE-4921-B75E-CC7483074193}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Hoja 1'!$A$243:$A$247</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>par1 </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>par2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>par4 </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>par 8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>par16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Hoja 1'!$B$243:$B$247</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.97132495841362376</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3159870499612376</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6193020299827747</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6567778136736695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5953896640374872</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FEAE-4921-B75E-CC7483074193}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Hoja 1'!$C$242</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SOBEL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0168377224432167E-2"/>
+                  <c:y val="2.846693145735767E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-FEAE-4921-B75E-CC7483074193}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Hoja 1'!$A$243:$A$247</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>par1 </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>par2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>par4 </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>par 8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>par16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Hoja 1'!$C$243:$C$247</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.85697551786682136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3045143605774594</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7169994215762803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7810103760523692</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7291405906906929</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FEAE-4921-B75E-CC7483074193}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1881381407"/>
+        <c:axId val="1958592703"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1881381407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1958592703"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1958592703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1881381407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2568,6 +4423,86 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4142,20 +6077,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>746124</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>604184</xdr:colOff>
       <xdr:row>219</xdr:row>
-      <xdr:rowOff>149224</xdr:rowOff>
+      <xdr:rowOff>89460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
+      <xdr:colOff>968189</xdr:colOff>
       <xdr:row>259</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>79936</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4182,16 +7149,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>219</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>11765</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>171261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>679449</xdr:colOff>
-      <xdr:row>241</xdr:row>
-      <xdr:rowOff>50799</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>567390</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>132974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4218,16 +7185,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>111125</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66302</xdr:colOff>
       <xdr:row>241</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:rowOff>62566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>698501</xdr:colOff>
-      <xdr:row>259</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>653678</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>10459</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4252,31 +7219,133 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>653677</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>100105</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>649943</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89688229-C8B8-4B1F-843F-9E56C5E1FDBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>280148</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>92636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>433294</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ABA2C4A-9F79-4D74-85D5-1A8A83CEC020}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FF585941-A4E0-4A8E-BD54-BE71EB1D36FE}" name="Table4" displayName="Table4" ref="A221:D228" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FF585941-A4E0-4A8E-BD54-BE71EB1D36FE}" name="Table4" displayName="Table4" ref="A221:D228" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A221:D228" xr:uid="{32B15A55-A83A-40F1-8D60-A18E79552E73}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{26F9F9AF-EE65-4B8E-9609-67EA4C956E16}" name="MEDIAS" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{A09394D9-EAFA-4DF1-93B1-0BA126746070}" name="COPY" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{B991A8DC-08B8-4FC8-AF4E-7538F17D97D6}" name="GAUSS" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{2E4482E0-57F3-4DE1-9AC4-FC07DB185E74}" name="SOBEL" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{26F9F9AF-EE65-4B8E-9609-67EA4C956E16}" name="MEDIAS" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{A09394D9-EAFA-4DF1-93B1-0BA126746070}" name="COPY" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{B991A8DC-08B8-4FC8-AF4E-7538F17D97D6}" name="GAUSS" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{2E4482E0-57F3-4DE1-9AC4-FC07DB185E74}" name="SOBEL" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A719A80E-881E-4737-BBA6-6D282D7DAB43}" name="Table5" displayName="Table5" ref="A230:C235" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A719A80E-881E-4737-BBA6-6D282D7DAB43}" name="Table5" displayName="Table5" ref="A230:C235" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="A230:C235" xr:uid="{CF2438B1-9C2B-4ECF-8278-7BB0834A8619}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8C593DFA-4E1C-416B-9968-5B674CA9CC18}" name="MEDIAS" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{F23EF3A2-B14B-4665-84B5-1E36BBB98857}" name="GAUSS" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{79BD0551-F24E-4C3B-B8FD-96C18ACCC6FA}" name="SOBEL" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{8C593DFA-4E1C-416B-9968-5B674CA9CC18}" name="MEDIAS" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{F23EF3A2-B14B-4665-84B5-1E36BBB98857}" name="GAUSS" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{79BD0551-F24E-4C3B-B8FD-96C18ACCC6FA}" name="SOBEL" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9BFC4BA-3DBA-4747-B2B5-60B7EFFA3194}" name="Table1" displayName="Table1" ref="A237:E240" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+  <autoFilter ref="A237:E240" xr:uid="{F7FBDA51-F4D9-4701-B1E9-EF7DF1959889}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{CDBF28AE-A85C-47DE-8F53-3B5D84424D27}" name="MEDIAS" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{9E2A2398-8FB2-4783-B707-6CDC49F5B976}" name="par 4 gauss" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{3569136F-39FE-407C-9072-936FF84A61E3}" name="par 4 sobel" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{69E98713-2130-433B-A524-04617E66D933}" name="par 8 gauss" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{5CDD486E-FDB7-44E1-932A-E52264AAF89E}" name="par 8 sobel" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BB68B762-D6F9-4F69-98FC-6B7AE3D5885D}" name="Table2" displayName="Table2" ref="A242:C247" totalsRowShown="0">
+  <autoFilter ref="A242:C247" xr:uid="{6BC5FE56-848F-41EC-9537-5A414D87DFB4}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3D902EBE-D15F-4562-B4A1-876D27FD2D07}" name="SPEEDUP" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{7673FB71-F99F-455A-B4CA-8E6C9D713143}" name="GAUSS" dataDxfId="1">
+      <calculatedColumnFormula>$C$223/C224</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{7DA64E7E-21FB-43AF-9DA5-FD83F86AE636}" name="SOBEL" dataDxfId="0">
+      <calculatedColumnFormula>$D$223/D224</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -4483,8 +7552,8 @@
   </sheetPr>
   <dimension ref="A1:R999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="T268" sqref="T268"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C247" sqref="A242:C247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15660,7 +18729,21 @@
       <c r="R236" s="3"/>
     </row>
     <row r="237" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="E237" s="6"/>
+      <c r="A237" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B237" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C237" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D237" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E237" s="18" t="s">
+        <v>50</v>
+      </c>
       <c r="F237" s="6"/>
       <c r="G237" s="6"/>
       <c r="H237" s="6"/>
@@ -15676,11 +18759,25 @@
       <c r="R237" s="3"/>
     </row>
     <row r="238" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A238" s="6"/>
-      <c r="B238" s="6"/>
-      <c r="C238" s="6"/>
-      <c r="D238" s="6"/>
-      <c r="E238" s="6"/>
+      <c r="A238" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B238" s="3">
+        <f>SUM(R82:R89)</f>
+        <v>1013512.8000000002</v>
+      </c>
+      <c r="C238" s="3">
+        <f>SUM(R92:R99)</f>
+        <v>1240151.9999999998</v>
+      </c>
+      <c r="D238" s="3">
+        <f>SUM(R142:R149)</f>
+        <v>1022481.7333333333</v>
+      </c>
+      <c r="E238" s="3">
+        <f>SUM(R152:R159)</f>
+        <v>1201722.0666666667</v>
+      </c>
       <c r="F238" s="6"/>
       <c r="G238" s="6"/>
       <c r="H238" s="6"/>
@@ -15696,11 +18793,25 @@
       <c r="R238" s="3"/>
     </row>
     <row r="239" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A239" s="6"/>
-      <c r="B239" s="6"/>
-      <c r="C239" s="6"/>
-      <c r="D239" s="6"/>
-      <c r="E239" s="6"/>
+      <c r="A239" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B239" s="3">
+        <f>SUM(R102:R109)</f>
+        <v>1016900.4666666667</v>
+      </c>
+      <c r="C239" s="3">
+        <f>SUM(R112:R119)</f>
+        <v>1250531.4666666666</v>
+      </c>
+      <c r="D239" s="3">
+        <f>SUM(R162:R169)</f>
+        <v>987217.06666666665</v>
+      </c>
+      <c r="E239" s="3">
+        <f>SUM(R172:R179)</f>
+        <v>1234564.0666666669</v>
+      </c>
       <c r="F239" s="6"/>
       <c r="G239" s="6"/>
       <c r="H239" s="6"/>
@@ -15716,11 +18827,25 @@
       <c r="R239" s="3"/>
     </row>
     <row r="240" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A240" s="6"/>
-      <c r="B240" s="6"/>
-      <c r="C240" s="6"/>
-      <c r="D240" s="6"/>
-      <c r="E240" s="6"/>
+      <c r="A240" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B240" s="3">
+        <f>SUM(R122:R129)</f>
+        <v>1010064.3999999999</v>
+      </c>
+      <c r="C240" s="3">
+        <f>SUM(R132:R139)</f>
+        <v>1254158.3333333335</v>
+      </c>
+      <c r="D240" s="3">
+        <f>SUM(R182:R189)</f>
+        <v>999217.7333333334</v>
+      </c>
+      <c r="E240" s="3">
+        <f>SUM(R192:R199)</f>
+        <v>1195579.9333333333</v>
+      </c>
       <c r="F240" s="6"/>
       <c r="G240" s="6"/>
       <c r="H240" s="6"/>
@@ -15756,21 +18881,85 @@
       <c r="R241" s="3"/>
     </row>
     <row r="242" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A242" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B242" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C242" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="R242" s="3"/>
     </row>
     <row r="243" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A243" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B243" s="16">
+        <f t="shared" ref="B243:B247" si="22">$C$223/C224</f>
+        <v>0.97132495841362376</v>
+      </c>
+      <c r="C243" s="16">
+        <f t="shared" ref="C243:C247" si="23">$D$223/D224</f>
+        <v>0.85697551786682136</v>
+      </c>
       <c r="R243" s="2"/>
     </row>
     <row r="244" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A244" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B244" s="16">
+        <f t="shared" si="22"/>
+        <v>1.3159870499612376</v>
+      </c>
+      <c r="C244" s="16">
+        <f t="shared" si="23"/>
+        <v>1.3045143605774594</v>
+      </c>
       <c r="R244" s="3"/>
     </row>
     <row r="245" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A245" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B245" s="16">
+        <f t="shared" si="22"/>
+        <v>1.6193020299827747</v>
+      </c>
+      <c r="C245" s="16">
+        <f t="shared" si="23"/>
+        <v>1.7169994215762803</v>
+      </c>
       <c r="R245" s="3"/>
     </row>
     <row r="246" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A246" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B246" s="16">
+        <f t="shared" si="22"/>
+        <v>1.6567778136736695</v>
+      </c>
+      <c r="C246" s="16">
+        <f t="shared" si="23"/>
+        <v>1.7810103760523692</v>
+      </c>
       <c r="R246" s="3"/>
     </row>
     <row r="247" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A247" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B247" s="16">
+        <f t="shared" si="22"/>
+        <v>1.5953896640374872</v>
+      </c>
+      <c r="C247" s="16">
+        <f t="shared" si="23"/>
+        <v>1.7291405906906929</v>
+      </c>
       <c r="R247" s="3"/>
     </row>
     <row r="248" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
@@ -15915,7 +19104,7 @@
         <v>279381</v>
       </c>
       <c r="R262" s="3">
-        <f t="shared" ref="R262:R269" si="22">AVERAGE(B262:P262)</f>
+        <f t="shared" ref="R262:R269" si="24">AVERAGE(B262:P262)</f>
         <v>287326.26666666666</v>
       </c>
     </row>
@@ -15969,7 +19158,7 @@
         <v>11368</v>
       </c>
       <c r="R263" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>9792.1333333333332</v>
       </c>
     </row>
@@ -16023,7 +19212,7 @@
         <v>49942</v>
       </c>
       <c r="R264" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>51030.666666666664</v>
       </c>
     </row>
@@ -16077,7 +19266,7 @@
         <v>42288</v>
       </c>
       <c r="R265" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>48816.6</v>
       </c>
     </row>
@@ -16131,7 +19320,7 @@
         <v>1122211</v>
       </c>
       <c r="R266" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1138234.3333333333</v>
       </c>
     </row>
@@ -16185,7 +19374,7 @@
         <v>51221</v>
       </c>
       <c r="R267" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>49832.800000000003</v>
       </c>
     </row>
@@ -16239,7 +19428,7 @@
         <v>49968</v>
       </c>
       <c r="R268" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>50810.400000000001</v>
       </c>
     </row>
@@ -16293,7 +19482,7 @@
         <v>41863</v>
       </c>
       <c r="R269" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>48041.599999999999</v>
       </c>
     </row>
@@ -16409,7 +19598,7 @@
         <v>317062</v>
       </c>
       <c r="R272" s="3">
-        <f t="shared" ref="R272:R279" si="23">AVERAGE(B272:P272)</f>
+        <f t="shared" ref="R272:R279" si="25">AVERAGE(B272:P272)</f>
         <v>313620.33333333331</v>
       </c>
     </row>
@@ -16463,7 +19652,7 @@
         <v>10586</v>
       </c>
       <c r="R273" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>10915.8</v>
       </c>
     </row>
@@ -16517,7 +19706,7 @@
         <v>76822</v>
       </c>
       <c r="R274" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>78107.8</v>
       </c>
     </row>
@@ -16571,7 +19760,7 @@
         <v>75234</v>
       </c>
       <c r="R275" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>76718.600000000006</v>
       </c>
     </row>
@@ -16625,7 +19814,7 @@
         <v>1771364</v>
       </c>
       <c r="R276" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1775063.4666666666</v>
       </c>
     </row>
@@ -16679,7 +19868,7 @@
         <v>75539</v>
       </c>
       <c r="R277" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>78076.2</v>
       </c>
     </row>
@@ -16733,7 +19922,7 @@
         <v>67102</v>
       </c>
       <c r="R278" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>75655.199999999997</v>
       </c>
     </row>
@@ -16787,7 +19976,7 @@
         <v>75369</v>
       </c>
       <c r="R279" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>76558</v>
       </c>
     </row>
@@ -18961,9 +22150,11 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <tableParts count="2">
+  <tableParts count="4">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>